--- a/prices_comparison.xlsx
+++ b/prices_comparison.xlsx
@@ -1,47 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\himan\Desktop\GitPrices\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C660DA-8F8B-4695-958B-F0CC70CE827E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="3864" yWindow="0" windowWidth="11712" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -56,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -380,52 +420,327 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
-      <c r="AG1" s="1"/>
-      <c r="AH1" s="1"/>
-      <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>site</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>url</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>price_text</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>price_value</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>html_file</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>timestamp</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>comparison_summary</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1719.99</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>scraped_html/samsung_www_samsung_com_1.html</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-11-19 14:16:11 UTC</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-256gb-unlocked-sku-sm-s938uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>949.99</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>scraped_html/samsung_www_samsung_com_2.html</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-11-19 14:16:31 UTC</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-256gb-unlocked-sku-sm-f766ulgaxaa/</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>$899.99</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>899.99</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>scraped_html/samsung_www_samsung_com_3.html</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-11-19 14:16:52 UTC</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-256gb-unlocked-sku-sm-s937uzsaxaa/</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>$1,099.99</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1099.99</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>scraped_html/samsung_www_samsung_com_4.html</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-11-19 14:17:13 UTC</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>scraped_html/amazon_www_amazon_com_1.html</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-11-19 14:17:28 UTC</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>$1,057..91</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>scraped_html/amazon_www_amazon_com_2.html</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-11-19 14:17:43 UTC</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FRNP/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>$1,019..99</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>scraped_html/amazon_www_amazon_com_3.html</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-11-19 14:17:57 UTC</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>$819..99</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>scraped_html/amazon_www_amazon_com_4.html</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-11-19 14:18:14 UTC</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/prices_comparison.xlsx
+++ b/prices_comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -742,6 +742,278 @@
         </is>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1719.99</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>scraped_html/samsung_www_samsung_com_1.html</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-11-20 03:07:01 UTC</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-256gb-unlocked-sku-sm-s938uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>949.99</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>scraped_html/samsung_www_samsung_com_2.html</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-11-20 03:07:23 UTC</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-256gb-unlocked-sku-sm-f766ulgaxaa/</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>$899.99</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>899.99</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>scraped_html/samsung_www_samsung_com_3.html</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-11-20 03:07:43 UTC</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-256gb-unlocked-sku-sm-s937uzsaxaa/</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>$1,099.99</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1099.99</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>scraped_html/samsung_www_samsung_com_4.html</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-11-20 03:08:04 UTC</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>scraped_html/amazon_www_amazon_com_1.html</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-11-20 03:08:21 UTC</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>$1,057..91</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>scraped_html/amazon_www_amazon_com_2.html</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-11-20 03:08:36 UTC</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FRNP/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>$1,019..99</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>scraped_html/amazon_www_amazon_com_3.html</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025-11-20 03:08:49 UTC</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>$819..99</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>scraped_html/amazon_www_amazon_com_4.html</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-11-20 03:09:02 UTC</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/prices_comparison.xlsx
+++ b/prices_comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1014,6 +1014,278 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1719.99</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>scraped_html/samsung_www_samsung_com_1.html</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-11-20 14:16:04 UTC</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-256gb-unlocked-sku-sm-s938uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>949.99</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>scraped_html/samsung_www_samsung_com_2.html</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-11-20 14:16:25 UTC</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-256gb-unlocked-sku-sm-f766ulgaxaa/</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>$899.99</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>899.99</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>scraped_html/samsung_www_samsung_com_3.html</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-11-20 14:16:45 UTC</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-256gb-unlocked-sku-sm-s937uzsaxaa/</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>$1,099.99</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1099.99</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>scraped_html/samsung_www_samsung_com_4.html</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2025-11-20 14:17:06 UTC</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>scraped_html/amazon_www_amazon_com_1.html</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-11-20 14:17:19 UTC</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>$1,057..91</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>scraped_html/amazon_www_amazon_com_2.html</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-11-20 14:17:33 UTC</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FRNP/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>$1,019..99</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>scraped_html/amazon_www_amazon_com_3.html</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-11-20 14:17:50 UTC</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>$819..99</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>scraped_html/amazon_www_amazon_com_4.html</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025-11-20 14:18:05 UTC</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/prices_comparison.xlsx
+++ b/prices_comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1286,6 +1286,278 @@
         </is>
       </c>
     </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>1719.99</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>scraped_html/samsung_www_samsung_com_1.html</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-11-21 03:08:12 UTC</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-256gb-unlocked-sku-sm-s938uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>949.99</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>scraped_html/samsung_www_samsung_com_2.html</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-11-21 03:08:32 UTC</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-256gb-unlocked-sku-sm-f766ulgaxaa/</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>$899.99</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>899.99</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>scraped_html/samsung_www_samsung_com_3.html</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2025-11-21 03:08:53 UTC</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-256gb-unlocked-sku-sm-s937uzsaxaa/</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>$1,099.99</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>1099.99</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>scraped_html/samsung_www_samsung_com_4.html</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2025-11-21 03:09:13 UTC</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>scraped_html/amazon_www_amazon_com_1.html</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2025-11-21 03:09:28 UTC</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>$1,057..91</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>scraped_html/amazon_www_amazon_com_2.html</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2025-11-21 03:09:43 UTC</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FRNP/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>$1,019..99</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>scraped_html/amazon_www_amazon_com_3.html</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2025-11-21 03:09:58 UTC</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>$819..99</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>scraped_html/amazon_www_amazon_com_4.html</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2025-11-21 03:10:12 UTC</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/prices_comparison.xlsx
+++ b/prices_comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G33"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1558,6 +1558,278 @@
         </is>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>1719.99</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>scraped_html/samsung_www_samsung_com_1.html</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2025-11-21 14:15:44 UTC</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-256gb-unlocked-sku-sm-s938uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>949.99</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>scraped_html/samsung_www_samsung_com_2.html</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2025-11-21 14:16:05 UTC</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-256gb-unlocked-sku-sm-f766ulgaxaa/</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>$899.99</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>899.99</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>scraped_html/samsung_www_samsung_com_3.html</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2025-11-21 14:16:26 UTC</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-256gb-unlocked-sku-sm-s937uzsaxaa/</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>$1,099.99</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>1099.99</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>scraped_html/samsung_www_samsung_com_4.html</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2025-11-21 14:16:46 UTC</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>scraped_html/amazon_www_amazon_com_1.html</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2025-11-21 14:17:02 UTC</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>$1,057..91</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>scraped_html/amazon_www_amazon_com_2.html</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2025-11-21 14:17:17 UTC</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FRNP/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>$1,019..99</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>scraped_html/amazon_www_amazon_com_3.html</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2025-11-21 14:17:31 UTC</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>$819..99</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>scraped_html/amazon_www_amazon_com_4.html</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2025-11-21 14:17:46 UTC</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/prices_comparison.xlsx
+++ b/prices_comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1830,6 +1830,278 @@
         </is>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1719.99</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>scraped_html/samsung_www_samsung_com_1.html</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2025-11-22 03:01:26 UTC</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-256gb-unlocked-sku-sm-s938uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>949.99</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>scraped_html/samsung_www_samsung_com_2.html</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2025-11-22 03:01:47 UTC</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-256gb-unlocked-sku-sm-f766ulgaxaa/</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>$899.99</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>899.99</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>scraped_html/samsung_www_samsung_com_3.html</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2025-11-22 03:02:08 UTC</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-256gb-unlocked-sku-sm-s937uzsaxaa/</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>$1,099.99</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>1099.99</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>scraped_html/samsung_www_samsung_com_4.html</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2025-11-22 03:02:28 UTC</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>scraped_html/amazon_www_amazon_com_1.html</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2025-11-22 03:02:45 UTC</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>$1,057..91</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>scraped_html/amazon_www_amazon_com_2.html</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2025-11-22 03:02:59 UTC</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FRNP/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>$1,019..99</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>scraped_html/amazon_www_amazon_com_3.html</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2025-11-22 03:03:15 UTC</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>$819..99</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>scraped_html/amazon_www_amazon_com_4.html</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2025-11-22 03:03:30 UTC</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/prices_comparison.xlsx
+++ b/prices_comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2102,6 +2102,278 @@
         </is>
       </c>
     </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-fold7/buy/galaxy-z-fold7-512gb-unlocked-sku-sm-f966udbexaa/</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>$1,719.99</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>1719.99</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>scraped_html/samsung_www_samsung_com_1.html</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2025-11-22 14:13:38 UTC</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-ultra-256gb-unlocked-sku-sm-s938uzkaxaa/</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>$949.99</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>949.99</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>scraped_html/samsung_www_samsung_com_2.html</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2025-11-22 14:13:58 UTC</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-z-flip7/buy/galaxy-z-flip7-256gb-unlocked-sku-sm-f766ulgaxaa/</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>$899.99</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>899.99</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>scraped_html/samsung_www_samsung_com_3.html</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2025-11-22 14:14:19 UTC</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.samsung.com/us/smartphones/galaxy-s25-ultra/buy/galaxy-s25-edge-256gb-unlocked-sku-sm-s937uzsaxaa/</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>$1,099.99</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>1099.99</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>scraped_html/samsung_www_samsung_com_4.html</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2025-11-22 14:14:40 UTC</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7JRKGH1/ref=sr_1_3?crid=2IIQ350CABWC7&amp;keywords=galaxy%2Bz%2Bfold%2B7</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>$1,719..99</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>scraped_html/amazon_www_amazon_com_1.html</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2025-11-22 14:14:56 UTC</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Smartphone-Unlocked-Processor-Manufacturer-Warranty/dp/B0DP3G4GVQ/ref=sr_1_1_sspa?crid=10TW4LFRAIOBO&amp;dib=eyJ2IjoiMSJ9.uqQhueQzsbHe8zENbFmj7bUk0vIwEpi-0APakuwi3hHMu2vGmVltlmCoeqExLjwwHe1NY_y-eiRAZze4TELqwF9A5Z3q2WMC2EPG0p4nD5aGis4NWae_K-CRmvy0IwyOTABmJrdT_nBArRg_3HUXEeD8RiVcw9SrqiFQb-CKPztbZuf4z8k2ncgbVn8qKqGMwy7rSG9Br5vXcD_F-IobKCrdhThEoUQ0RDqrmYpPZPI.EY_aE-DTUSHzDMHcvx2u1pDmmaEgKrcYAQ31_D796hk&amp;dib_tag=se&amp;keywords=s25%2Bultra&amp;qid=1763542293&amp;sprefix=s25%2Caps%2C425&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>$1,057..91</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>scraped_html/amazon_www_amazon_com_2.html</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2025-11-22 14:15:09 UTC</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/Samsung-Smartphone-Unlocked-Manufacturer-Warranty/dp/B0F7K3FRNP/ref=sr_1_1_sspa?crid=ZFFPIZBZ98GJ&amp;dib=eyJ2IjoiMSJ9.UCywTCyyKG4bvq7perU6WJwDnwocjQBoU_CBTt0iLEilFUxs7eGFZYXZpU_ioObwnwWuyf6rjjxKURGHvrFykwP0YDyTNEHIJ6iMdK6L--UC4Xf9otHkBAGnuMrKXhDVPrKXBcX3EASPQMHPmIxeZyAUQDkEAC7kjvwYOc851BfCkl7yfIKNjFbb5-rq1n_ZNuEDFncqGGsmuRczfLMtzrq4HfNQyihnc2SfvotrbB8.gsaBvxdWlghc5_yM6ADh4JkaCZsCGwTYiwGF4rklYiw&amp;dib_tag=se&amp;keywords=galaxy%2Bz%2Bflip%2B7&amp;qid=1763542634&amp;sprefix=galaxy%2Bz%2Bflip7%2B%2Caps%2C427&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>$1,019..99</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>scraped_html/amazon_www_amazon_com_3.html</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2025-11-22 14:15:23 UTC</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Amazon</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.amazon.com/SAMSUNG-Smartphone-Processor-ProScaler-Manufacturer/dp/B0DYVMVZSY/ref=sr_1_1_sspa?crid=18N7Z6JOQP2BV&amp;dib=eyJ2IjoiMSJ9.nzLYfcsJ7KheFLAc8b9qkf36-GLK18wvNZAtoNJSu1Zuk0LTOxwvIqqD7blO0fqQDvGW1a_cFlDg5Nh6UJs25ksORtqvnynWCvMs3mnXvO49ZOy1Lc0OCa8xgu_zDwki3AucEZejB1tiHQzt8KYuAH3-YcGmTnO7s-Wn_1i_JPAcSstuLawUyqxRadquHocmToV-_PuNbtIeLyuTmsuGn88G4Hs_fJCfV7dzS_zI9l8.tjLmW8sTlnkCiJoCZPOQgL3qCTpiGvJ6gp9QKjm7R24&amp;dib_tag=se&amp;keywords=galaxy%2Bs25%2Bedge&amp;qid=1763542733&amp;sprefix=galaxy%2Bs25%2Bed%2Caps%2C351&amp;sr=8-1-spons&amp;sp_csd=d2lkZ2V0TmFtZT1zcF9hdGY&amp;th=1</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>$819..99</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>scraped_html/amazon_www_amazon_com_4.html</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2025-11-22 14:15:38 UTC</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Cheapest this run: Samsung</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
